--- a/docs/PTA2_DDC_100/PTA2_DDC_100_01.08.24_output.xlsx
+++ b/docs/PTA2_DDC_100/PTA2_DDC_100_01.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,139 +505,157 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731786388.5714455</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731786388.5714455.png</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731786388.5714455.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>288.85</v>
       </c>
-      <c r="J3" t="n">
-        <v>288.85</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>287.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-1.100000000000023</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731786397.1340435</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731786398.0942783</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731786397.1340435.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731786398.0942783.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>134.32</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>133.4</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.9199999999999875</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.6799999999999999</v>
       </c>
     </row>
@@ -635,139 +663,157 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731786411.1814632</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731786411.1814632.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731786411.1814632.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>132.61</v>
       </c>
-      <c r="J5" t="n">
-        <v>132.61</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>132.1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.5100000000000193</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731786426.2068243</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731786426.2068243.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731786426.2068243.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>6720</v>
       </c>
-      <c r="J6" t="n">
-        <v>6720</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>6687</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-33</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731786442.9208992</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731786444.9151666</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731786442.9208992.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731786444.9151666.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>516.65</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>515.2</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>1.449999999999932</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -775,95 +821,107 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731786450.7304883</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731786450.7304883.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731786450.7304883.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>512.65</v>
       </c>
-      <c r="J8" t="n">
-        <v>512.65</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>506.8</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-5.849999999999966</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-1.14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731786466.616901</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731786468.8745267</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731786466.616901.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731786468.8745267.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>233.13</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>232.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.6299999999999955</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -871,95 +929,107 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731786481.265409</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731786481.265409.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731786481.265409.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>230.67</v>
       </c>
-      <c r="J10" t="n">
-        <v>230.67</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>229.85</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.8199999999999932</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731786487.994677</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731786492.2233112</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731786487.994677.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731786492.2233112.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>1048.4</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>1045.4</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>3</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -967,51 +1037,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731786495.9529948</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731786496.403628</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731786495.9529948.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731786496.403628.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>1039.4</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>1042.6</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>3.199999999999818</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1019,95 +1095,107 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731786508.5983906</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731786508.5983906.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731786508.5983906.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>1028.8</v>
       </c>
-      <c r="J13" t="n">
-        <v>1028.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1030.6</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.799999999999955</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731786512.8826022</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731786521.9329925</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731786512.8826022.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731786521.9329925.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>129.14</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>129.92</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.7800000000000011</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1115,95 +1203,107 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731786524.3595395</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731786524.3595395.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731786524.3595395.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>129.06</v>
       </c>
-      <c r="J15" t="n">
-        <v>129.06</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>128.64</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.4200000000000159</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731786533.7046528</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731786535.51424</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731786533.7046528.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731786535.51424.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>166.4</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>165.88</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.5200000000000102</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1211,139 +1311,157 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731786549.0587773</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731786549.0587773.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731786549.0587773.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>165.02</v>
       </c>
-      <c r="J17" t="n">
-        <v>165.02</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>164.66</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.3600000000000136</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731786575.639876</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731786575.639876.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731786575.639876.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>50.725</v>
       </c>
-      <c r="J18" t="n">
-        <v>50.725</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>50.57</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.1550000000000011</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731786578.4094331</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731786578.7036002</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731786578.4094331.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731786578.7036002.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1412.4</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1417.4</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>5</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1351,95 +1469,107 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731786597.3511147</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731786597.3511147.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731786597.3511147.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1411</v>
       </c>
-      <c r="J20" t="n">
-        <v>1411</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1412.6</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.599999999999909</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731786602.0520055</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731786603.3014724</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731786602.0520055.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731786603.3014724.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>61.2</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>60.87</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.3300000000000054</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -1447,51 +1577,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731786607.8183658</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731786610.9793828</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731786607.8183658.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731786610.9793828.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>61.29</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>61.2</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.08999999999999631</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1499,95 +1635,107 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731786620.9231472</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731786620.9231472.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731786620.9231472.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>60.78</v>
       </c>
-      <c r="J23" t="n">
-        <v>60.78</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>60.68</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.1000000000000014</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731786626.0344408</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731786628.1247554</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/SELG1731786626.0344408.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/SELG1731786628.1247554.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>58.93</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>58.74</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1595,139 +1743,157 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731786643.2804554</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731786643.2804554.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731786643.2804554.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>57.75</v>
       </c>
-      <c r="J25" t="n">
-        <v>57.75</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>57.2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.5499999999999972</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731786664.1053653</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731786664.1053653.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731786664.1053653.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>143.8</v>
       </c>
-      <c r="J26" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>142.98</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.8200000000000216</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731786673.8619637</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731786680.9948134</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731786673.8619637.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731786680.9948134.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>21.475</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>21.217</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.2580000000000027</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -1735,183 +1901,207 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731786687.499367</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731786687.499367.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731786687.499367.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>21.104</v>
       </c>
-      <c r="J28" t="n">
-        <v>21.104</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>20.831</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.2729999999999997</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-1.29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731786708.5579412</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731786708.5579412.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731786708.5579412.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>681.05</v>
       </c>
-      <c r="J29" t="n">
-        <v>681.05</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>679.2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-1.849999999999909</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731786719.3900108</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731786719.3900108.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731786719.3900108.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>379.23</v>
       </c>
-      <c r="J30" t="n">
-        <v>379.23</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>378.22</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.009999999999991</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731786721.0534961</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731786721.4468267</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/FEES1731786721.0534961.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/FEES1731786721.4468267.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>0.09910000000000001</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>0.09976</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.0006599999999999939</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -1919,51 +2109,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731786730.8231292</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731786736.6340427</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/FEES1731786730.8231292.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/FEES1731786736.6340427.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>0.1005</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>0.09992000000000001</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.0005799999999999972</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -1971,95 +2167,107 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731786740.1202254</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731786740.1202254.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731786740.1202254.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>0.09958</v>
       </c>
-      <c r="J33" t="n">
-        <v>0.09958</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.09927999999999999</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.0003000000000000086</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731786748.481006</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731786757.939267</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731786748.481006.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731786757.939267.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>0.6019</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>0.6053000000000001</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.00340000000000007</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -2067,95 +2275,107 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731786765.083799</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1731786765.083799.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1731786765.083799.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>0.602</v>
       </c>
-      <c r="J35" t="n">
-        <v>0.602</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.6012999999999999</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.0007000000000000339</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731786768.8272514</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731786770.830486</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MXI1731786768.8272514.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MXI1731786770.830486.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>3036.2</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>3031.55</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>4.649999999999636</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2163,51 +2383,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731786772.2417414</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731786775.0757418</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MXI1731786772.2417414.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MXI1731786775.0757418.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>3025</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>3032.1</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>7.099999999999909</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -2215,51 +2441,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731786778.2533236</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731786778.5039632</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MXI1731786778.2533236.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MXI1731786778.5039632.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>3022</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>3026.9</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>4.900000000000091</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2267,51 +2499,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731786779.449406</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731786782.5764322</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MXI1731786779.449406.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MXI1731786782.5764322.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>3017.25</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>3022</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>4.75</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2319,51 +2557,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731786783.441665</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731786785.622048</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MXI1731786783.441665.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MXI1731786785.622048.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>3024.25</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>3022.2</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>2.050000000000182</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -2371,51 +2615,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731786787.5789845</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731786797.2329643</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MXI1731786787.5789845.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MXI1731786797.2329643.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>3015.45</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>2997.55</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-17.89999999999964</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.59</v>
       </c>
     </row>
@@ -2423,51 +2673,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731786812.3020272</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731786814.97568</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731786812.3020272.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731786814.97568.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>34.61</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>34.935</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.3250000000000028</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.9400000000000001</v>
       </c>
     </row>
@@ -2475,44 +2731,50 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731786816.204357</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731786816.204357.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731786816.204357.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>34.545</v>
       </c>
-      <c r="J43" t="n">
-        <v>34.545</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>34.425</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.1200000000000045</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.35</v>
       </c>
     </row>
   </sheetData>
@@ -2595,19 +2857,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4200000000000017</v>
+        <v>0.3200000000000003</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1400000000000006</v>
+        <v>0.1066666666666668</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6900000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="F3" t="n">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
@@ -2617,19 +2879,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001239999999999991</v>
+        <v>0.0009399999999999825</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0004133333333333304</v>
+        <v>0.0003133333333333275</v>
       </c>
       <c r="E4" t="n">
-        <v>1.25</v>
+        <v>0.95</v>
       </c>
       <c r="F4" t="n">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="5">
@@ -2639,19 +2901,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.199999999999818</v>
+        <v>7.999999999999773</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2.066666666666606</v>
+        <v>2.666666666666591</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6">
@@ -2661,19 +2923,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2580000000000027</v>
+        <v>-0.01499999999999702</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1290000000000013</v>
+        <v>-0.007499999999998508</v>
       </c>
       <c r="E6" t="n">
-        <v>1.2</v>
+        <v>-0.09000000000000008</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="7">
@@ -2683,19 +2945,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1899999999999977</v>
+        <v>-0.3599999999999994</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09499999999999886</v>
+        <v>-0.1799999999999997</v>
       </c>
       <c r="E7" t="n">
-        <v>0.32</v>
+        <v>-0.6299999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.16</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="8">
@@ -2705,19 +2967,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3250000000000028</v>
+        <v>0.2049999999999983</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1625000000000014</v>
+        <v>0.1024999999999991</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.47</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9">
@@ -2727,19 +2989,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.449999999999932</v>
+        <v>-4.400000000000034</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7249999999999659</v>
+        <v>-2.200000000000017</v>
       </c>
       <c r="E9" t="n">
-        <v>0.28</v>
+        <v>-0.8600000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.14</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="10">
@@ -2749,19 +3011,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5200000000000102</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2600000000000051</v>
+        <v>0.07999999999999829</v>
       </c>
       <c r="E10" t="n">
-        <v>0.31</v>
+        <v>0.09</v>
       </c>
       <c r="F10" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="11">
@@ -2771,19 +3033,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6299999999999955</v>
+        <v>-0.1899999999999977</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3149999999999977</v>
+        <v>-0.09499999999999886</v>
       </c>
       <c r="E11" t="n">
-        <v>0.27</v>
+        <v>-0.08999999999999997</v>
       </c>
       <c r="F11" t="n">
-        <v>0.14</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="12">
@@ -2793,19 +3055,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00340000000000007</v>
+        <v>0.002700000000000036</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001700000000000035</v>
+        <v>0.001350000000000018</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5599999999999999</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="13">
@@ -2815,19 +3077,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7800000000000011</v>
+        <v>0.3599999999999852</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3900000000000006</v>
+        <v>0.1799999999999926</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6</v>
+        <v>0.27</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="14">
@@ -2837,19 +3099,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9199999999999875</v>
+        <v>0.4099999999999682</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4599999999999937</v>
+        <v>0.2049999999999841</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.2999999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="15">
@@ -2859,19 +3121,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>6.599999999999909</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>2.5</v>
+        <v>3.299999999999955</v>
       </c>
       <c r="E15" t="n">
-        <v>0.35</v>
+        <v>0.46</v>
       </c>
       <c r="F15" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="16">
@@ -2881,19 +3143,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-0.1550000000000011</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.1550000000000011</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-0.31</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="17">
@@ -2903,19 +3165,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-33</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-33</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-0.49</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="18">
@@ -2925,19 +3187,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-1.100000000000023</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-1.100000000000023</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-0.38</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="19">
@@ -2947,19 +3209,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.009999999999991</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.009999999999991</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="20">
@@ -2969,19 +3231,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.849999999999909</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1.849999999999909</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-0.27</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="21">
@@ -2991,19 +3253,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0.8200000000000216</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-0.8200000000000216</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-0.5700000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="22">
